--- a/simplified_metadata_scraper/Matlab/Output/Bluebook/CSV/CommentedFiles/SentencesC_commented.xlsx
+++ b/simplified_metadata_scraper/Matlab/Output/Bluebook/CSV/CommentedFiles/SentencesC_commented.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SentencesC_commented.csv" sheetId="1" r:id="rId1"/>
@@ -3313,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView tabSelected="1" topLeftCell="E344" workbookViewId="0">
+      <selection activeCell="J363" sqref="J363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
